--- a/rotate_function.xlsx
+++ b/rotate_function.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\wanglandauparallel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455"/>
+    <workbookView xWindow="960" yWindow="0" windowWidth="15345" windowHeight="4455"/>
   </bookViews>
   <sheets>
     <sheet name="square_ising_4x4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -541,8 +541,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -677,23 +678,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -729,23 +713,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -898,53 +865,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH68"/>
+  <dimension ref="A1:AI68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="AL9" sqref="AL9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="3.140625" customWidth="1"/>
-    <col min="18" max="33" width="3.140625" customWidth="1"/>
+    <col min="2" max="17" width="3.140625" customWidth="1"/>
+    <col min="19" max="34" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R1" t="s">
+    <row r="1" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>A5</f>
+    <row r="2" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:AG2" si="0">B5</f>
-        <v>1</v>
+        <f>B5</f>
+        <v>0</v>
       </c>
       <c r="T2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="T2:AH2" si="0">C5</f>
+        <v>1</v>
       </c>
       <c r="U2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W2">
-        <f>F5*-1</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="X2">
-        <f t="shared" si="0"/>
+        <f>G5*-1</f>
         <v>0</v>
       </c>
       <c r="Y2">
@@ -969,11 +932,11 @@
       </c>
       <c r="AD2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF2">
         <f t="shared" si="0"/>
@@ -984,332 +947,332 @@
         <v>0</v>
       </c>
       <c r="AH2">
-        <f>SUM(R2:AG17)/2</f>
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f>SUM(S2:AH17)/2</f>
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="R3">
-        <f t="shared" ref="R3:R14" si="1">A6</f>
+    <row r="3" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="S3">
-        <f t="shared" ref="S3:S14" si="2">B6</f>
-        <v>0</v>
+        <f t="shared" ref="S3:S14" si="1">B6</f>
+        <v>1</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T14" si="3">C6</f>
-        <v>1</v>
+        <f t="shared" ref="T3:T14" si="2">C6</f>
+        <v>0</v>
       </c>
       <c r="U3">
-        <f t="shared" ref="U3:U14" si="4">D6</f>
-        <v>0</v>
+        <f t="shared" ref="U3:U14" si="3">D6</f>
+        <v>1</v>
       </c>
       <c r="V3">
-        <f t="shared" ref="V3:V14" si="5">E6</f>
+        <f t="shared" ref="V3:V14" si="4">E6</f>
         <v>0</v>
       </c>
       <c r="W3">
-        <f t="shared" ref="W3:W17" si="6">F6*-1</f>
-        <v>-1</v>
+        <f t="shared" ref="W3:W14" si="5">F6</f>
+        <v>0</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X14" si="7">G6</f>
-        <v>0</v>
+        <f t="shared" ref="X3:X16" si="6">G6*-1</f>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <f t="shared" ref="Y3:Y14" si="8">H6</f>
+        <f t="shared" ref="Y3:Y14" si="7">H6</f>
         <v>0</v>
       </c>
       <c r="Z3">
-        <f t="shared" ref="Z3:Z14" si="9">I6</f>
+        <f t="shared" ref="Z3:Z14" si="8">I6</f>
         <v>0</v>
       </c>
       <c r="AA3">
-        <f t="shared" ref="AA3:AA14" si="10">J6</f>
+        <f t="shared" ref="AA3:AA14" si="9">J6</f>
         <v>0</v>
       </c>
       <c r="AB3">
-        <f t="shared" ref="AB3:AB14" si="11">K6</f>
+        <f t="shared" ref="AB3:AB14" si="10">K6</f>
         <v>0</v>
       </c>
       <c r="AC3">
-        <f t="shared" ref="AC3:AC14" si="12">L6</f>
+        <f t="shared" ref="AC3:AC14" si="11">L6</f>
         <v>0</v>
       </c>
       <c r="AD3">
-        <f t="shared" ref="AD3:AD14" si="13">M6</f>
+        <f t="shared" ref="AD3:AD14" si="12">M6</f>
         <v>0</v>
       </c>
       <c r="AE3">
-        <f t="shared" ref="AE3:AE14" si="14">N6</f>
-        <v>1</v>
+        <f t="shared" ref="AE3:AE14" si="13">N6</f>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <f t="shared" ref="AF3:AF14" si="15">O6</f>
-        <v>0</v>
+        <f t="shared" ref="AF3:AF14" si="14">O6</f>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <f t="shared" ref="AG3:AG14" si="16">P6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+        <f t="shared" ref="AG3:AG14" si="15">P6</f>
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH14" si="16">Q6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+    <row r="5" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C5">
         <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <f>SUM(A5:P20)/2</f>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <f>SUM(B5:Q20)/2</f>
         <v>32</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="R6">
+    <row r="6" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="S6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>1</v>
-      </c>
-      <c r="R7">
-        <f>A10*-1</f>
-        <v>0</v>
+    <row r="7" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
       </c>
       <c r="S7">
-        <f t="shared" ref="S7:V7" si="17">B10*-1</f>
-        <v>-1</v>
+        <f>B10*-1</f>
+        <v>0</v>
       </c>
       <c r="T7">
-        <f t="shared" si="17"/>
-        <v>0</v>
+        <f t="shared" ref="T7:W7" si="17">C10*-1</f>
+        <v>-1</v>
       </c>
       <c r="U7">
         <f t="shared" si="17"/>
@@ -1317,19 +1280,19 @@
       </c>
       <c r="V7">
         <f t="shared" si="17"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W7">
+        <f t="shared" si="17"/>
+        <v>-1</v>
+      </c>
+      <c r="X7">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X7">
-        <f t="shared" ref="X7:AG7" si="18">G10*-1</f>
-        <v>-1</v>
-      </c>
       <c r="Y7">
-        <f t="shared" si="18"/>
-        <v>0</v>
+        <f t="shared" ref="Y7:AH7" si="18">H10*-1</f>
+        <v>-1</v>
       </c>
       <c r="Z7">
         <f t="shared" si="18"/>
@@ -1337,11 +1300,11 @@
       </c>
       <c r="AA7">
         <f t="shared" si="18"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
         <f t="shared" si="18"/>
@@ -1363,577 +1326,577 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="R8">
+      <c r="AH7">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="S8">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="H9">
+    <row r="9" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="R9">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="S9">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="R10">
+    <row r="10" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="S10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="R11">
+    <row r="11" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="S11">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <f t="shared" si="6"/>
         <v>-1</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D12">
-        <v>1</v>
-      </c>
+    <row r="12" spans="2:35" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="R12">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="S12">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="J13">
-        <v>1</v>
-      </c>
-      <c r="L13">
+    <row r="13" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>1</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
-      <c r="R13">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="S13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="R14">
+    <row r="14" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="S14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <f t="shared" ref="R15:V17" si="19">A18</f>
-        <v>0</v>
+    <row r="15" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
       </c>
       <c r="S15">
-        <f t="shared" si="19"/>
-        <v>1</v>
+        <f t="shared" ref="S15:W17" si="19">B18</f>
+        <v>0</v>
       </c>
       <c r="T15">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
         <f t="shared" si="19"/>
@@ -1944,15 +1907,15 @@
         <v>0</v>
       </c>
       <c r="W15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X15">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="X15">
-        <f t="shared" ref="X15:AG17" si="20">G18</f>
-        <v>0</v>
-      </c>
       <c r="Y15">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="Y15:AH17" si="20">H18</f>
         <v>0</v>
       </c>
       <c r="Z15">
@@ -1961,11 +1924,11 @@
       </c>
       <c r="AA15">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15">
         <f t="shared" si="20"/>
@@ -1973,37 +1936,37 @@
       </c>
       <c r="AD15">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE15">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG15">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:35" x14ac:dyDescent="0.25">
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="P16">
-        <v>1</v>
-      </c>
-      <c r="R16">
-        <f t="shared" si="19"/>
-        <v>0</v>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
       </c>
       <c r="S16">
         <f t="shared" si="19"/>
@@ -2011,22 +1974,22 @@
       </c>
       <c r="T16">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="W16">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X16">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Y16">
@@ -2043,11 +2006,11 @@
       </c>
       <c r="AB16">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16">
         <f t="shared" si="20"/>
@@ -2055,33 +2018,33 @@
       </c>
       <c r="AE16">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
         <f t="shared" si="20"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="P17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <f t="shared" si="19"/>
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
       </c>
       <c r="S17">
         <f t="shared" si="19"/>
@@ -2093,18 +2056,18 @@
       </c>
       <c r="U17">
         <f t="shared" si="19"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V17">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17">
-        <f>F20*-1</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="X17">
-        <f t="shared" si="20"/>
+        <f>G20*-1</f>
         <v>0</v>
       </c>
       <c r="Y17">
@@ -2125,7 +2088,7 @@
       </c>
       <c r="AC17">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <f t="shared" si="20"/>
@@ -2133,65 +2096,66 @@
       </c>
       <c r="AE17">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF17">
         <f t="shared" si="20"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG17">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>1</v>
-      </c>
-      <c r="R18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="S18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
       </c>
       <c r="S19">
-        <f>S2*-1</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <f>T2*-1</f>
+        <v>-1</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
         <v>0</v>
@@ -2212,10 +2176,10 @@
         <v>0</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF19">
         <v>0</v>
@@ -2224,38 +2188,37 @@
         <v>0</v>
       </c>
       <c r="AH19">
-        <f>SUM(R19:AG34)/2</f>
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <f>SUM(S19:AH34)/2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="L20">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E20">
         <v>1</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
-      <c r="O20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <f>R3*-1</f>
-        <v>-1</v>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
       </c>
       <c r="S20">
-        <f t="shared" ref="S20:AG20" si="21">S3*-1</f>
-        <v>0</v>
+        <f>S3*-1</f>
+        <v>-1</v>
       </c>
       <c r="T20">
-        <f t="shared" si="21"/>
-        <v>-1</v>
+        <f t="shared" ref="T20:AH20" si="21">T3*-1</f>
+        <v>0</v>
       </c>
       <c r="U20">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V20">
         <f t="shared" si="21"/>
@@ -2263,11 +2226,11 @@
       </c>
       <c r="W20">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X20">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <f t="shared" si="21"/>
@@ -2295,42 +2258,43 @@
       </c>
       <c r="AE20">
         <f t="shared" si="21"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG20">
         <f t="shared" si="21"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R21">
-        <v>0</v>
-      </c>
+      <c r="AH20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S21">
-        <f t="shared" ref="S20:S34" si="22">S4*-1</f>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <f t="shared" ref="T21:T34" si="22">T4*-1</f>
+        <v>-1</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2351,25 +2315,74 @@
         <v>0</v>
       </c>
       <c r="AF21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1">
+        <v>1</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
         <v>1</v>
       </c>
       <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T22">
-        <v>1</v>
-      </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -2381,10 +2394,10 @@
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA22">
         <v>0</v>
@@ -2405,20 +2418,88 @@
         <v>0</v>
       </c>
       <c r="AG22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <f>B22</f>
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <f>B5*B$22*$A23</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f t="shared" ref="C23:Q23" si="23">C5*C$22*$A23</f>
+        <v>-1</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="23"/>
+        <v>-1</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="23"/>
+        <v>0</v>
       </c>
       <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
       <c r="U23">
         <v>0</v>
       </c>
@@ -2426,19 +2507,19 @@
         <v>0</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z23">
         <v>1</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB23">
         <v>0</v>
@@ -2458,41 +2539,109 @@
       <c r="AG23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R24">
+      <c r="AH23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <f>C22</f>
+        <v>-1</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ref="B24:Q24" si="24">B6*B$22*$A24</f>
+        <v>-1</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="24"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="24"/>
+        <v>-1</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="22"/>
         <v>1</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
       <c r="U24">
         <v>0</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -2509,44 +2658,112 @@
       <c r="AG24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R25">
+      <c r="AH24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <f>D22</f>
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:Q25" si="25">B7*B$22*$A25</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="25"/>
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -2560,32 +2777,100 @@
       <c r="AG25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R26">
-        <v>0</v>
+      <c r="AH25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <f>E22</f>
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:Q26" si="26">B8*B$22*$A26</f>
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="26"/>
+        <v>1</v>
       </c>
       <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
       <c r="U26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26">
         <v>1</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
         <v>0</v>
@@ -2597,10 +2882,10 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE26">
         <v>0</v>
@@ -2611,26 +2896,94 @@
       <c r="AG26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R27">
+      <c r="AH26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <f>F22</f>
+        <v>-1</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ref="B27:Q27" si="27">B9*B$22*$A27</f>
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="27"/>
+        <v>-1</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
       <c r="U27">
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -2642,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="AA27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
         <v>1</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -2662,18 +3015,86 @@
       <c r="AG27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R28">
+      <c r="AH27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <f>G22</f>
+        <v>-1</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:Q28" si="28">B10*B$22*$A28</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="28"/>
+        <v>-1</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
       <c r="U28">
         <v>0</v>
       </c>
@@ -2681,50 +3102,118 @@
         <v>0</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R29">
+      <c r="AH28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <f>H22</f>
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:Q29" si="29">B11*B$22*$A29</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="29"/>
+        <v>-1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
       <c r="U29">
         <v>0</v>
       </c>
@@ -2735,47 +3224,115 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29">
         <v>0</v>
       </c>
       <c r="AA29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R30">
+        <v>1</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <f>I22</f>
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ref="B30:Q30" si="30">B12*B$22*$A30</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="30"/>
+        <v>-1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="30"/>
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
       <c r="U30">
         <v>0</v>
       </c>
@@ -2789,19 +3346,19 @@
         <v>0</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>1</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
         <v>0</v>
@@ -2813,20 +3370,88 @@
         <v>0</v>
       </c>
       <c r="AG30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R31">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <f>J22</f>
+        <v>-1</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ref="B31:Q31" si="31">B13*B$22*$A31</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="31"/>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="31"/>
+        <v>-1</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="31"/>
+        <v>0</v>
       </c>
       <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
       <c r="U31">
         <v>0</v>
       </c>
@@ -2843,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB31">
         <v>0</v>
@@ -2858,26 +3483,94 @@
         <v>0</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <f>K22</f>
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ref="B32:Q32" si="32">B14*B$22*$A32</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="32"/>
+        <v>-1</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="32"/>
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="22"/>
         <v>-1</v>
       </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
       <c r="U32">
         <v>0</v>
       </c>
@@ -2897,40 +3590,108 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>0</v>
       </c>
       <c r="AD32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R33">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <f>L22</f>
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ref="B33:Q33" si="33">B15*B$22*$A33</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="33"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T33">
-        <v>1</v>
-      </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -2951,40 +3712,108 @@
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R34">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <f>M22</f>
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:Q34" si="34">B16*B$22*$A34</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <f t="shared" si="34"/>
+        <v>-1</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="34"/>
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="34"/>
+        <v>1</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
       <c r="U34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34">
         <v>0</v>
@@ -3005,45 +3834,181 @@
         <v>0</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD34">
         <v>1</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R35" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <f>N22</f>
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ref="B35:Q35" si="35">B17*B$22*$A35</f>
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="35"/>
+        <v>-1</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="35"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="S35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R36">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <f>O22</f>
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ref="B36:Q36" si="36">B18*B$22*$A36</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="36"/>
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <f>V19*-1</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <f>W19*-1</f>
+        <v>-1</v>
       </c>
       <c r="X36">
         <v>0</v>
@@ -3064,10 +4029,10 @@
         <v>0</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF36">
         <v>0</v>
@@ -3076,32 +4041,100 @@
         <v>0</v>
       </c>
       <c r="AH36">
-        <f>SUM(R36:AG51)</f>
+        <v>0</v>
+      </c>
+      <c r="AI36">
+        <f>SUM(S36:AH51)</f>
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R37">
-        <v>-1</v>
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f>P22</f>
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ref="B37:Q37" si="37">B19*B$22*$A37</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V37">
-        <f t="shared" ref="V37:AG51" si="23">V20*-1</f>
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <f t="shared" ref="W37:AH51" si="38">W20*-1</f>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -3122,40 +4155,108 @@
         <v>0</v>
       </c>
       <c r="AE37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R38">
+      <c r="AH37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <f>Q22</f>
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ref="B38:Q38" si="39">B20*B$22*$A38</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="39"/>
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="S38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38">
         <v>0</v>
@@ -3176,40 +4277,40 @@
         <v>0</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R39">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W39">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X39">
         <v>0</v>
       </c>
       <c r="Y39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA39">
         <v>0</v>
@@ -3230,109 +4331,113 @@
         <v>0</v>
       </c>
       <c r="AG39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R40">
-        <f>R23*-1</f>
-        <v>-1</v>
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f>SUM(B23:Q38)/2</f>
+        <v>12</v>
       </c>
       <c r="S40">
-        <f t="shared" ref="S40:AG40" si="24">S23*-1</f>
-        <v>0</v>
+        <f>S23*-1</f>
+        <v>-1</v>
       </c>
       <c r="T40">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="T40:V40" si="40">T23*-1</f>
         <v>0</v>
       </c>
       <c r="U40">
-        <f t="shared" si="24"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="V40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="W40">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="X40">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="Y40">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>-1</v>
       </c>
       <c r="AA40">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AC40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AD40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AE40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AF40">
-        <f t="shared" si="23"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AG40">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R41">
-        <v>0</v>
-      </c>
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>0</v>
       </c>
       <c r="V41">
-        <f t="shared" si="23"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>1</v>
       </c>
       <c r="X41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
         <v>0</v>
@@ -3349,44 +4454,44 @@
       <c r="AG41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R42">
-        <v>0</v>
-      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W42">
-        <v>-1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA42">
         <v>0</v>
       </c>
       <c r="AB42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42">
         <v>0</v>
@@ -3400,11 +4505,11 @@
       <c r="AG42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R43">
-        <v>0</v>
-      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S43">
         <v>0</v>
       </c>
@@ -3412,20 +4517,20 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>-1</v>
       </c>
       <c r="X43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z43">
         <v>0</v>
@@ -3437,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="AC43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -3451,11 +4556,11 @@
       <c r="AG43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R44">
-        <v>0</v>
-      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S44">
         <v>0</v>
       </c>
@@ -3466,11 +4571,11 @@
         <v>0</v>
       </c>
       <c r="V44">
-        <f t="shared" si="23"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="W44">
-        <v>0</v>
+        <f t="shared" si="38"/>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>0</v>
@@ -3482,19 +4587,19 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44">
         <v>1</v>
       </c>
       <c r="AE44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF44">
         <v>0</v>
@@ -3502,11 +4607,11 @@
       <c r="AG44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R45">
-        <v>0</v>
-      </c>
+      <c r="AH44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S45">
         <v>0</v>
       </c>
@@ -3517,47 +4622,47 @@
         <v>0</v>
       </c>
       <c r="V45">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="X45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45">
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R46">
-        <v>0</v>
-      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S46">
         <v>0</v>
       </c>
@@ -3568,47 +4673,47 @@
         <v>0</v>
       </c>
       <c r="V46">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W46">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z46">
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE46">
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R47">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S47">
         <v>0</v>
       </c>
@@ -3619,29 +4724,29 @@
         <v>0</v>
       </c>
       <c r="V47">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W47">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X47">
         <v>0</v>
       </c>
       <c r="Y47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z47">
         <v>1</v>
       </c>
       <c r="AA47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -3653,15 +4758,15 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R48">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
         <v>0</v>
@@ -3670,10 +4775,10 @@
         <v>0</v>
       </c>
       <c r="V48">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W48">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X48">
@@ -3683,10 +4788,10 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB48">
         <v>0</v>
@@ -3698,33 +4803,33 @@
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R49">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U49">
         <v>0</v>
       </c>
       <c r="V49">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W49">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X49">
@@ -3737,45 +4842,45 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49">
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R50">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="W50">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X50">
@@ -3791,28 +4896,28 @@
         <v>0</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50">
         <v>0</v>
       </c>
       <c r="AE50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R51">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S51">
         <v>0</v>
       </c>
@@ -3820,13 +4925,13 @@
         <v>0</v>
       </c>
       <c r="U51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51">
-        <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W51">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="X51">
@@ -3845,44 +4950,44 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>1</v>
       </c>
       <c r="AE51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R52" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="19:35" x14ac:dyDescent="0.25">
+      <c r="S52" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R53">
-        <v>0</v>
-      </c>
+    <row r="53" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S53">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V53">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -3891,10 +4996,10 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <f>Z36*-1</f>
         <v>0</v>
       </c>
       <c r="AA53">
+        <f>AA36*-1</f>
         <v>0</v>
       </c>
       <c r="AB53">
@@ -3904,10 +5009,10 @@
         <v>0</v>
       </c>
       <c r="AD53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF53">
         <v>0</v>
@@ -3916,40 +5021,40 @@
         <v>0</v>
       </c>
       <c r="AH53">
-        <f>SUM(R53:AG68)</f>
+        <v>0</v>
+      </c>
+      <c r="AI53">
+        <f>SUM(S53:AH68)</f>
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R54">
-        <v>-1</v>
-      </c>
+    <row r="54" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y54">
         <v>0</v>
       </c>
       <c r="Z54">
-        <f t="shared" ref="Z54:AG68" si="25">Z37*-1</f>
         <v>0</v>
       </c>
       <c r="AA54">
+        <f t="shared" ref="AA54:AH68" si="41">AA37*-1</f>
         <v>0</v>
       </c>
       <c r="AB54">
@@ -3962,45 +5067,45 @@
         <v>0</v>
       </c>
       <c r="AE54">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R55">
-        <v>0</v>
-      </c>
+      <c r="AH54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S55">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W55">
         <v>0</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z55">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA55">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB55">
@@ -4016,24 +5121,24 @@
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R56">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -4045,13 +5150,13 @@
         <v>0</v>
       </c>
       <c r="Y56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA56">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB56">
@@ -4070,15 +5175,15 @@
         <v>0</v>
       </c>
       <c r="AG56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R57">
-        <v>-1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S57">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="T57">
         <v>0</v>
@@ -4090,20 +5195,20 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Z57">
-        <f t="shared" si="25"/>
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>1</v>
       </c>
       <c r="AB57">
         <v>0</v>
@@ -4123,41 +5228,41 @@
       <c r="AG57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R58">
-        <v>0</v>
-      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U58">
         <v>0</v>
       </c>
       <c r="V58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC58">
         <v>0</v>
@@ -4174,44 +5279,44 @@
       <c r="AG58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R59">
-        <v>0</v>
-      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S59">
         <v>0</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59">
         <v>0</v>
       </c>
       <c r="W59">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X59">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z59">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA59">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59">
         <v>0</v>
@@ -4225,11 +5330,11 @@
       <c r="AG59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R60">
-        <v>0</v>
-      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S60">
         <v>0</v>
       </c>
@@ -4237,35 +5342,35 @@
         <v>0</v>
       </c>
       <c r="U60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V60">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="W60">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA60">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB60">
         <v>0</v>
       </c>
       <c r="AC60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE60">
         <v>0</v>
@@ -4276,77 +5381,77 @@
       <c r="AG60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R61">
-        <f>R44*-1</f>
-        <v>0</v>
-      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S61">
-        <f t="shared" ref="S61:AG61" si="26">S44*-1</f>
+        <f>S44*-1</f>
         <v>0</v>
       </c>
       <c r="T61">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="T61:Z61" si="42">T44*-1</f>
         <v>0</v>
       </c>
       <c r="U61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="V61">
-        <f t="shared" si="26"/>
-        <v>1</v>
+        <f t="shared" si="42"/>
+        <v>0</v>
       </c>
       <c r="W61">
-        <f t="shared" si="26"/>
-        <v>0</v>
+        <f t="shared" si="42"/>
+        <v>1</v>
       </c>
       <c r="X61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="26"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA61">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AB61">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-1</v>
       </c>
       <c r="AC61">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>-1</v>
       </c>
       <c r="AE61">
-        <f t="shared" si="25"/>
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-1</v>
       </c>
       <c r="AF61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AG61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R62">
-        <v>0</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S62">
         <v>0</v>
       </c>
@@ -4360,44 +5465,44 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>0</v>
       </c>
       <c r="Z62">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62">
         <v>0</v>
       </c>
       <c r="AE62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R63">
-        <v>0</v>
-      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S63">
         <v>0</v>
       </c>
@@ -4414,41 +5519,41 @@
         <v>0</v>
       </c>
       <c r="X63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z63">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE63">
         <v>0</v>
       </c>
       <c r="AF63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="18:34" x14ac:dyDescent="0.25">
-      <c r="R64">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="19:35" x14ac:dyDescent="0.25">
       <c r="S64">
         <v>0</v>
       </c>
@@ -4468,20 +5573,20 @@
         <v>0</v>
       </c>
       <c r="Y64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64">
         <v>0</v>
@@ -4493,15 +5598,15 @@
         <v>0</v>
       </c>
       <c r="AG64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="18:33" x14ac:dyDescent="0.25">
-      <c r="R65">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65">
         <v>0</v>
@@ -4522,11 +5627,11 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <f t="shared" si="25"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <f t="shared" si="41"/>
+        <v>-1</v>
       </c>
       <c r="AB65">
         <v>0</v>
@@ -4538,24 +5643,24 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="18:33" x14ac:dyDescent="0.25">
-      <c r="R66">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S66">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="U66">
         <v>0</v>
@@ -4573,43 +5678,43 @@
         <v>0</v>
       </c>
       <c r="Z66">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>0</v>
       </c>
       <c r="AB66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66">
         <v>0</v>
       </c>
       <c r="AD66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="18:33" x14ac:dyDescent="0.25">
-      <c r="R67">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S67">
         <v>0</v>
       </c>
       <c r="T67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -4624,35 +5729,35 @@
         <v>0</v>
       </c>
       <c r="Z67">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA67">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="18:33" x14ac:dyDescent="0.25">
-      <c r="R68">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AH67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="19:34" x14ac:dyDescent="0.25">
       <c r="S68">
         <v>0</v>
       </c>
@@ -4660,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W68">
         <v>0</v>
@@ -4675,32 +5780,36 @@
         <v>0</v>
       </c>
       <c r="Z68">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="AA68">
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AB68">
         <v>0</v>
       </c>
       <c r="AC68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD68">
         <v>1</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG68">
+        <v>1</v>
+      </c>
+      <c r="AH68">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>